--- a/22_população-por-macroárea-proporcional_2020.xlsx
+++ b/22_população-por-macroárea-proporcional_2020.xlsx
@@ -422,21 +422,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MRVU</t>
+          <t>MRVRA</t>
         </is>
       </c>
       <c r="B7">
-        <v>0.2348975307415281</v>
+        <v>0.1563729615857002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MRVURA</t>
+          <t>MRVU</t>
         </is>
       </c>
       <c r="B8">
-        <v>0.1563729615857002</v>
+        <v>0.2348975307415281</v>
       </c>
     </row>
     <row r="9">
